--- a/files/whatsapp_number.xlsx
+++ b/files/whatsapp_number.xlsx
@@ -437,7 +437,7 @@
   <dimension ref="A1:C2"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C2" sqref="C2"/>
+      <selection activeCell="A3" sqref="A3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="8" defaultRowHeight="15" outlineLevelCol="0"/>
